--- a/ky/downloads/data-excel/12.4.2.xlsx
+++ b/ky/downloads/data-excel/12.4.2.xlsx
@@ -89,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +170,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,7 +242,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -299,6 +314,22 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -605,23 +636,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="1" max="3" width="38.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="7" width="9.85546875" customWidth="1"/>
     <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -637,7 +664,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -647,7 +674,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -684,48 +711,54 @@
       <c r="L3" s="9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="M3" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="30" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="26">
         <v>23.205713219453443</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="26">
         <v>1736.9881219370377</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="26">
         <v>2008.5013517475004</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="26">
         <v>2015.4873975098692</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="26">
         <v>1878.4881446122545</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="26">
         <f>I5/I6*1000</f>
         <v>1720.4261516057334</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="27">
         <v>1754.6</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="28">
         <v>1673.3508218102056</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="29">
         <f>L5/L6*1000</f>
         <v>1800.7843583039673</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="29">
+        <v>1963.9481143272037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -762,8 +795,11 @@
       <c r="L5" s="23">
         <v>12673.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="23">
+        <v>14065.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -800,9 +836,12 @@
       <c r="L6" s="22">
         <v>7037.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="M6" s="22">
+        <v>7161.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -838,8 +877,11 @@
       <c r="L7" s="22">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="22">
+        <v>46.213456944602434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -876,8 +918,11 @@
       <c r="L8" s="19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="19">
+        <v>4.4790126265498803E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -887,7 +932,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -897,7 +942,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -907,7 +952,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -917,7 +962,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -927,7 +972,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -937,7 +982,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -947,7 +992,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
